--- a/data/pca/factorExposure/factorExposure_2009-11-17.xlsx
+++ b/data/pca/factorExposure/factorExposure_2009-11-17.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="108">
   <si>
     <t>factor1</t>
   </si>
@@ -23,6 +23,12 @@
   </si>
   <si>
     <t>factor3</t>
+  </si>
+  <si>
+    <t>factor4</t>
+  </si>
+  <si>
+    <t>factor5</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -689,13 +695,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D104"/>
+  <dimension ref="A1:F104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:6">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -705,24 +711,36 @@
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2" s="1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B2">
-        <v>0.005539457689583716</v>
+        <v>0.01678780112823574</v>
       </c>
       <c r="C2">
-        <v>-0.008153048368457472</v>
+        <v>-0.001001462437648367</v>
       </c>
       <c r="D2">
-        <v>0.002693479595380705</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>0.007791358080620306</v>
+      </c>
+      <c r="E2">
+        <v>-0.0009785184978944213</v>
+      </c>
+      <c r="F2">
+        <v>0.01188210172624346</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
       <c r="A3" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -733,24 +751,36 @@
       <c r="D3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:4">
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
       <c r="A4" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B4">
-        <v>0.05263927296763651</v>
+        <v>0.09399993837074108</v>
       </c>
       <c r="C4">
-        <v>-0.09877072105518783</v>
+        <v>-0.0149821336665278</v>
       </c>
       <c r="D4">
-        <v>0.04013576306749748</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+        <v>0.08413545053799144</v>
+      </c>
+      <c r="E4">
+        <v>-0.02817820028194882</v>
+      </c>
+      <c r="F4">
+        <v>-0.03201873712612111</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
       <c r="A5" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -761,164 +791,236 @@
       <c r="D5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
       <c r="A6" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B6">
-        <v>0.0676799205315731</v>
+        <v>0.1577598756469117</v>
       </c>
       <c r="C6">
-        <v>-0.1116461675802068</v>
+        <v>-0.02568797773937453</v>
       </c>
       <c r="D6">
-        <v>-0.03909046493358603</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
+        <v>-0.02137584034576594</v>
+      </c>
+      <c r="E6">
+        <v>-0.01221815542213074</v>
+      </c>
+      <c r="F6">
+        <v>-0.04470887072110809</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
       <c r="A7" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B7">
-        <v>0.02564164810714415</v>
+        <v>0.06282237764438052</v>
       </c>
       <c r="C7">
-        <v>-0.07451228686953239</v>
+        <v>0.001574436364588684</v>
       </c>
       <c r="D7">
-        <v>0.02052322688866847</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
+        <v>0.05268708397250658</v>
+      </c>
+      <c r="E7">
+        <v>-0.009377740766371157</v>
+      </c>
+      <c r="F7">
+        <v>-0.04739578423286582</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
       <c r="A8" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B8">
-        <v>0.01175859274766166</v>
+        <v>0.05696478541682267</v>
       </c>
       <c r="C8">
-        <v>-0.06263293831258906</v>
+        <v>0.01352317473685211</v>
       </c>
       <c r="D8">
-        <v>-0.008349018741409591</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
+        <v>0.03325400986494505</v>
+      </c>
+      <c r="E8">
+        <v>-0.01722211904682878</v>
+      </c>
+      <c r="F8">
+        <v>0.02795037026375469</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
       <c r="A9" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B9">
-        <v>0.04535173644327142</v>
+        <v>0.07134738533568574</v>
       </c>
       <c r="C9">
-        <v>-0.0856599930519355</v>
+        <v>-0.01066510592104947</v>
       </c>
       <c r="D9">
-        <v>0.04028321883261746</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
+        <v>0.08603804566689983</v>
+      </c>
+      <c r="E9">
+        <v>-0.02244674800997175</v>
+      </c>
+      <c r="F9">
+        <v>-0.04732551274501701</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
       <c r="A10" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B10">
-        <v>0.02306307539718135</v>
+        <v>0.09466165426499505</v>
       </c>
       <c r="C10">
-        <v>-0.03417380517839436</v>
+        <v>-0.0210422116762855</v>
       </c>
       <c r="D10">
-        <v>-0.1229381141904813</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
+        <v>-0.1700276095634976</v>
+      </c>
+      <c r="E10">
+        <v>0.03526896796750061</v>
+      </c>
+      <c r="F10">
+        <v>0.05337860079789435</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
       <c r="A11" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B11">
-        <v>0.04839760964500418</v>
+        <v>0.08761315858369509</v>
       </c>
       <c r="C11">
-        <v>-0.0886453773875369</v>
+        <v>-0.01051869376634489</v>
       </c>
       <c r="D11">
-        <v>0.06448687516463558</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
+        <v>0.1167373153608231</v>
+      </c>
+      <c r="E11">
+        <v>-0.04619026162723507</v>
+      </c>
+      <c r="F11">
+        <v>-0.02066688943705733</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
       <c r="A12" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B12">
-        <v>0.05029768822287631</v>
+        <v>0.09217977556212115</v>
       </c>
       <c r="C12">
-        <v>-0.1003679917345211</v>
+        <v>-0.007781467428447276</v>
       </c>
       <c r="D12">
-        <v>0.06340078507368288</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
+        <v>0.1317082164969258</v>
+      </c>
+      <c r="E12">
+        <v>-0.0476803840829118</v>
+      </c>
+      <c r="F12">
+        <v>-0.02736945709026933</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
       <c r="A13" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B13">
-        <v>0.01914616228059484</v>
+        <v>0.04203418948419982</v>
       </c>
       <c r="C13">
-        <v>-0.03912123496975489</v>
+        <v>-0.002844878324438963</v>
       </c>
       <c r="D13">
-        <v>0.03373569117365711</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
+        <v>0.05272800053424668</v>
+      </c>
+      <c r="E13">
+        <v>0.007917383511627961</v>
+      </c>
+      <c r="F13">
+        <v>-0.00292403667479361</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
       <c r="A14" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B14">
-        <v>0.02120784245796628</v>
+        <v>0.02271641395255102</v>
       </c>
       <c r="C14">
-        <v>-0.01451483580470181</v>
+        <v>-0.01356186733685033</v>
       </c>
       <c r="D14">
-        <v>0.007888372381238972</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
+        <v>0.03359866794352597</v>
+      </c>
+      <c r="E14">
+        <v>-0.01779230370836348</v>
+      </c>
+      <c r="F14">
+        <v>-0.01442672155969107</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
       <c r="A15" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B15">
-        <v>0.01916384664849687</v>
+        <v>0.03315306744700464</v>
       </c>
       <c r="C15">
-        <v>-0.03220881872942265</v>
+        <v>-0.004777418725755063</v>
       </c>
       <c r="D15">
-        <v>0.01168237047129379</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
+        <v>0.04482220320282598</v>
+      </c>
+      <c r="E15">
+        <v>-0.005676798403259555</v>
+      </c>
+      <c r="F15">
+        <v>-0.02294044792298033</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
       <c r="A16" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B16">
-        <v>0.03803290470176493</v>
+        <v>0.07462347292353583</v>
       </c>
       <c r="C16">
-        <v>-0.08851401024643826</v>
+        <v>-0.001419521103065813</v>
       </c>
       <c r="D16">
-        <v>0.05456133150481165</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
+        <v>0.126004626680343</v>
+      </c>
+      <c r="E16">
+        <v>-0.06196405397350897</v>
+      </c>
+      <c r="F16">
+        <v>-0.02386835196635687</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
       <c r="A17" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -929,24 +1031,36 @@
       <c r="D17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:4">
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
       <c r="A18" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B18">
-        <v>0</v>
+        <v>0.03299729651530419</v>
       </c>
       <c r="C18">
-        <v>0</v>
+        <v>0.00356729139454451</v>
       </c>
       <c r="D18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4">
+        <v>0.01839566179286079</v>
+      </c>
+      <c r="E18">
+        <v>0.007797784879629347</v>
+      </c>
+      <c r="F18">
+        <v>0.0068089144692376</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
       <c r="A19" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -957,108 +1071,156 @@
       <c r="D19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:4">
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
       <c r="A20" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B20">
-        <v>0.02705489013976193</v>
+        <v>0.06087355274181147</v>
       </c>
       <c r="C20">
-        <v>-0.05902576149205332</v>
+        <v>-0.0002319205080397295</v>
       </c>
       <c r="D20">
-        <v>0.01346969965634007</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
+        <v>0.07728803935506844</v>
+      </c>
+      <c r="E20">
+        <v>-0.05525346327430295</v>
+      </c>
+      <c r="F20">
+        <v>-0.02316050281059401</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
       <c r="A21" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B21">
-        <v>0.02115951408280311</v>
+        <v>0.04096944033859259</v>
       </c>
       <c r="C21">
-        <v>-0.02642789662375929</v>
+        <v>-0.006530838193296924</v>
       </c>
       <c r="D21">
-        <v>0.007707476925983994</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
+        <v>0.03698735680447469</v>
+      </c>
+      <c r="E21">
+        <v>0.005293759082499416</v>
+      </c>
+      <c r="F21">
+        <v>0.02429803328651552</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
       <c r="A22" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B22">
-        <v>0.01167781026519673</v>
+        <v>0.0435465043363814</v>
       </c>
       <c r="C22">
-        <v>-0.02940456295641033</v>
+        <v>-0.0009656320813904608</v>
       </c>
       <c r="D22">
-        <v>-0.03074597589742227</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
+        <v>0.005433711234775156</v>
+      </c>
+      <c r="E22">
+        <v>-0.03249401070782196</v>
+      </c>
+      <c r="F22">
+        <v>0.04201099327457693</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
       <c r="A23" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B23">
-        <v>0.01165822811153358</v>
+        <v>0.04353212022783427</v>
       </c>
       <c r="C23">
-        <v>-0.02936095638378034</v>
+        <v>-0.0009612495828463369</v>
       </c>
       <c r="D23">
-        <v>-0.03080479981105682</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
+        <v>0.005438480743459717</v>
+      </c>
+      <c r="E23">
+        <v>-0.03269539601178476</v>
+      </c>
+      <c r="F23">
+        <v>0.04197441821151759</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
       <c r="A24" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B24">
-        <v>0.04130944750726773</v>
+        <v>0.08026918942107346</v>
       </c>
       <c r="C24">
-        <v>-0.09718684476944894</v>
+        <v>-0.001877182762635765</v>
       </c>
       <c r="D24">
-        <v>0.05845755185912822</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
+        <v>0.1214824173806956</v>
+      </c>
+      <c r="E24">
+        <v>-0.04931392065075157</v>
+      </c>
+      <c r="F24">
+        <v>-0.02582270065894764</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
       <c r="A25" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B25">
-        <v>0.04263098435658249</v>
+        <v>0.08487389784682998</v>
       </c>
       <c r="C25">
-        <v>-0.09063766392501239</v>
+        <v>-0.004301357115375818</v>
       </c>
       <c r="D25">
-        <v>0.07225872209198719</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
+        <v>0.1092912686512691</v>
+      </c>
+      <c r="E25">
+        <v>-0.03223234879035093</v>
+      </c>
+      <c r="F25">
+        <v>-0.02638159491717334</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
       <c r="A26" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B26">
-        <v>0.03273001099308188</v>
+        <v>0.05799963007402432</v>
       </c>
       <c r="C26">
-        <v>-0.03936034731752017</v>
+        <v>-0.01419874173452154</v>
       </c>
       <c r="D26">
-        <v>0.008672894554172939</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
+        <v>0.04000567178433598</v>
+      </c>
+      <c r="E26">
+        <v>-0.02762752019095029</v>
+      </c>
+      <c r="F26">
+        <v>0.007443232860471596</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
       <c r="A27" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1069,206 +1231,296 @@
       <c r="D27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:4">
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
       <c r="A28" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B28">
-        <v>0.03033833597501533</v>
+        <v>0.1401356755109172</v>
       </c>
       <c r="C28">
-        <v>-0.0728512695373499</v>
+        <v>-0.02072984542530126</v>
       </c>
       <c r="D28">
-        <v>-0.2124439531184603</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
+        <v>-0.2617128210484361</v>
+      </c>
+      <c r="E28">
+        <v>0.06715553700207294</v>
+      </c>
+      <c r="F28">
+        <v>-0.009278678776515699</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6">
       <c r="A29" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B29">
-        <v>0.01782762551462052</v>
+        <v>0.02739081460567423</v>
       </c>
       <c r="C29">
-        <v>-0.01865716928785105</v>
+        <v>-0.008341490992777393</v>
       </c>
       <c r="D29">
-        <v>0.005732320787302244</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
+        <v>0.03187085557663914</v>
+      </c>
+      <c r="E29">
+        <v>-0.01130365140131623</v>
+      </c>
+      <c r="F29">
+        <v>0.0115474554185487</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6">
       <c r="A30" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B30">
-        <v>0.04223037344775348</v>
+        <v>0.06082000891856602</v>
       </c>
       <c r="C30">
-        <v>-0.1089533098705149</v>
+        <v>-0.003370466122275349</v>
       </c>
       <c r="D30">
-        <v>0.04701961107999107</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
+        <v>0.08841875846553442</v>
+      </c>
+      <c r="E30">
+        <v>-0.01869124250790872</v>
+      </c>
+      <c r="F30">
+        <v>-0.08124087601119516</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6">
       <c r="A31" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B31">
-        <v>0.02706307939214708</v>
+        <v>0.05009717223112415</v>
       </c>
       <c r="C31">
-        <v>-0.02573158067153234</v>
+        <v>-0.01512487528795292</v>
       </c>
       <c r="D31">
-        <v>0.0107016195216271</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
+        <v>0.02495901191716211</v>
+      </c>
+      <c r="E31">
+        <v>-0.0277000607901315</v>
+      </c>
+      <c r="F31">
+        <v>0.002162922209827782</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6">
       <c r="A32" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B32">
-        <v>0.01845860363009157</v>
+        <v>0.04994976706056453</v>
       </c>
       <c r="C32">
-        <v>-0.04879065086673877</v>
+        <v>0.001634613950427169</v>
       </c>
       <c r="D32">
-        <v>-0.002110858025406264</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4">
+        <v>0.03689150157830971</v>
+      </c>
+      <c r="E32">
+        <v>-0.0317148099450467</v>
+      </c>
+      <c r="F32">
+        <v>-0.002933775025087106</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6">
       <c r="A33" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B33">
-        <v>0.0471798300681508</v>
+        <v>0.09005992390102818</v>
       </c>
       <c r="C33">
-        <v>-0.1005593853904015</v>
+        <v>-0.007317302712905793</v>
       </c>
       <c r="D33">
-        <v>0.03938854495993638</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4">
+        <v>0.09978909714609381</v>
+      </c>
+      <c r="E33">
+        <v>-0.04403105051902031</v>
+      </c>
+      <c r="F33">
+        <v>-0.03574719239458788</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6">
       <c r="A34" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B34">
-        <v>0.04351385774093024</v>
+        <v>0.06799521719553236</v>
       </c>
       <c r="C34">
-        <v>-0.07997424172281212</v>
+        <v>-0.01021508787653983</v>
       </c>
       <c r="D34">
-        <v>0.06003648546406901</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4">
+        <v>0.1081484530396216</v>
+      </c>
+      <c r="E34">
+        <v>-0.03467977588987804</v>
+      </c>
+      <c r="F34">
+        <v>-0.03227790786267756</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6">
       <c r="A35" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B35">
-        <v>0.008895494962585434</v>
+        <v>0.02446651791437327</v>
       </c>
       <c r="C35">
-        <v>-0.01815462448417046</v>
+        <v>-0.002351562031132181</v>
       </c>
       <c r="D35">
-        <v>0.002633005434432989</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4">
+        <v>0.01144584467115737</v>
+      </c>
+      <c r="E35">
+        <v>-0.01156066465854239</v>
+      </c>
+      <c r="F35">
+        <v>-0.0002616541237362459</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6">
       <c r="A36" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B36">
-        <v>0.01404820276539776</v>
+        <v>0.02783134016819658</v>
       </c>
       <c r="C36">
-        <v>-0.008778692285730357</v>
+        <v>-0.006966508628992885</v>
       </c>
       <c r="D36">
-        <v>0.02057066100058854</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4">
+        <v>0.03930284255645677</v>
+      </c>
+      <c r="E36">
+        <v>-0.01618292476331362</v>
+      </c>
+      <c r="F36">
+        <v>-0.01475001790778283</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6">
       <c r="A37" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B37">
-        <v>0</v>
+        <v>0.0002850147781218613</v>
       </c>
       <c r="C37">
-        <v>0</v>
+        <v>0.0001125920661766461</v>
       </c>
       <c r="D37">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4">
+        <v>-0.0003471660444765834</v>
+      </c>
+      <c r="E37">
+        <v>0.00042010193846385</v>
+      </c>
+      <c r="F37">
+        <v>-0.000708007223135269</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6">
       <c r="A38" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B38">
-        <v>0.0010839637103067</v>
+        <v>0.001405890825911326</v>
       </c>
       <c r="C38">
-        <v>-0.002802583541560527</v>
+        <v>-0.0002442790854615371</v>
       </c>
       <c r="D38">
-        <v>-0.002394356200753033</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4">
+        <v>-0.0005260389638112599</v>
+      </c>
+      <c r="E38">
+        <v>-0.0001684245024123459</v>
+      </c>
+      <c r="F38">
+        <v>0.0008842623258720608</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6">
       <c r="A39" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B39">
-        <v>0.06582949354091117</v>
+        <v>0.1053532168185367</v>
       </c>
       <c r="C39">
-        <v>-0.1281873853105539</v>
+        <v>-0.01572479032298251</v>
       </c>
       <c r="D39">
-        <v>0.113360916138968</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4">
+        <v>0.1536015349269702</v>
+      </c>
+      <c r="E39">
+        <v>-0.05861972834915191</v>
+      </c>
+      <c r="F39">
+        <v>-0.029554979193478</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6">
       <c r="A40" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B40">
-        <v>0.01666498472946158</v>
+        <v>0.0424007622878949</v>
       </c>
       <c r="C40">
-        <v>-0.01786262219508172</v>
+        <v>-0.006838160246911239</v>
       </c>
       <c r="D40">
-        <v>-0.007539090879948164</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4">
+        <v>0.03164826642001152</v>
+      </c>
+      <c r="E40">
+        <v>-0.003448833400177312</v>
+      </c>
+      <c r="F40">
+        <v>0.01683903195889715</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6">
       <c r="A41" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B41">
-        <v>0.01369196760132897</v>
+        <v>0.02810957060910332</v>
       </c>
       <c r="C41">
-        <v>-0.01262282012299069</v>
+        <v>-0.006849260615142366</v>
       </c>
       <c r="D41">
-        <v>-0.005565224709120208</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4">
+        <v>0.009932205466938699</v>
+      </c>
+      <c r="E41">
+        <v>-0.01234744548881288</v>
+      </c>
+      <c r="F41">
+        <v>0.006302652905053606</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6">
       <c r="A42" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -1279,38 +1531,56 @@
       <c r="D42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:4">
+      <c r="E42">
+        <v>0</v>
+      </c>
+      <c r="F42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6">
       <c r="A43" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B43">
-        <v>0.0169254666915946</v>
+        <v>0.0407047264600409</v>
       </c>
       <c r="C43">
-        <v>-0.01983502069169677</v>
+        <v>-0.006833020491304413</v>
       </c>
       <c r="D43">
-        <v>0.002133003982159483</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4">
+        <v>0.01918328803904045</v>
+      </c>
+      <c r="E43">
+        <v>-0.02431859153471375</v>
+      </c>
+      <c r="F43">
+        <v>0.01296677113776291</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6">
       <c r="A44" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B44">
-        <v>0.05983103163808275</v>
+        <v>0.0796129399550418</v>
       </c>
       <c r="C44">
-        <v>-0.101853696302248</v>
+        <v>-0.01976491796494891</v>
       </c>
       <c r="D44">
-        <v>0.03142768799462749</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4">
+        <v>0.09719450523526584</v>
+      </c>
+      <c r="E44">
+        <v>-0.06379692211828919</v>
+      </c>
+      <c r="F44">
+        <v>-0.1554137118718968</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6">
       <c r="A45" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1321,164 +1591,236 @@
       <c r="D45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:4">
+      <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="F45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6">
       <c r="A46" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B46">
-        <v>0.007874025504231717</v>
+        <v>0.02331793331435916</v>
       </c>
       <c r="C46">
-        <v>-0.009556572521026995</v>
+        <v>-0.00337176929971581</v>
       </c>
       <c r="D46">
-        <v>-0.01181956212844786</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4">
+        <v>0.01262107731874428</v>
+      </c>
+      <c r="E46">
+        <v>-0.02174551573503992</v>
+      </c>
+      <c r="F46">
+        <v>0.006556737524040015</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6">
       <c r="A47" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B47">
-        <v>0.01694095933276421</v>
+        <v>0.05165792358948646</v>
       </c>
       <c r="C47">
-        <v>-0.02782688937514453</v>
+        <v>-0.00323240264960388</v>
       </c>
       <c r="D47">
-        <v>-0.02171579482040462</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4">
+        <v>0.01424630162153899</v>
+      </c>
+      <c r="E47">
+        <v>-0.02374758541948239</v>
+      </c>
+      <c r="F47">
+        <v>0.03242893146690195</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6">
       <c r="A48" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B48">
-        <v>0.02054195450242708</v>
+        <v>0.05009497373719014</v>
       </c>
       <c r="C48">
-        <v>-0.04266395307904217</v>
+        <v>-0.002220212761716501</v>
       </c>
       <c r="D48">
-        <v>0.03466088662825523</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4">
+        <v>0.050045454797102</v>
+      </c>
+      <c r="E48">
+        <v>0.006276177279140237</v>
+      </c>
+      <c r="F48">
+        <v>-0.01019016305920747</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6">
       <c r="A49" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B49">
-        <v>0.09120206282076052</v>
+        <v>0.2008370601029176</v>
       </c>
       <c r="C49">
-        <v>-0.2146914599751372</v>
+        <v>-0.01896758759627672</v>
       </c>
       <c r="D49">
-        <v>-0.05229802286925532</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4">
+        <v>-0.007334570406811312</v>
+      </c>
+      <c r="E49">
+        <v>-0.03182118094672694</v>
+      </c>
+      <c r="F49">
+        <v>-0.03710050606219444</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6">
       <c r="A50" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B50">
-        <v>0.02484712953585659</v>
+        <v>0.05053405032919988</v>
       </c>
       <c r="C50">
-        <v>-0.02967756113782627</v>
+        <v>-0.01104755749902848</v>
       </c>
       <c r="D50">
-        <v>0.008583023844924917</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4">
+        <v>0.0238145501933628</v>
+      </c>
+      <c r="E50">
+        <v>-0.02955834521419928</v>
+      </c>
+      <c r="F50">
+        <v>-0.009790861314127543</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6">
       <c r="A51" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B51">
-        <v>0.0003785746828573877</v>
+        <v>0.0004217641788338196</v>
       </c>
       <c r="C51">
-        <v>-0.0009339514800302749</v>
+        <v>-0.0001197134551620209</v>
       </c>
       <c r="D51">
-        <v>-0.001058527697362404</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4">
+        <v>-0.00030247377747161</v>
+      </c>
+      <c r="E51">
+        <v>-8.236695410121156e-05</v>
+      </c>
+      <c r="F51">
+        <v>-0.001005780947606708</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6">
       <c r="A52" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B52">
-        <v>0.06636089002462052</v>
+        <v>0.1462397048149097</v>
       </c>
       <c r="C52">
-        <v>-0.151851291317029</v>
+        <v>-0.01605418158592677</v>
       </c>
       <c r="D52">
-        <v>0.02813195232891963</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4">
+        <v>0.0438115810296965</v>
+      </c>
+      <c r="E52">
+        <v>-0.01981482097071317</v>
+      </c>
+      <c r="F52">
+        <v>-0.04247332245747631</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6">
       <c r="A53" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B53">
-        <v>0.07249707375601798</v>
+        <v>0.1717102411342147</v>
       </c>
       <c r="C53">
-        <v>-0.1671833052159057</v>
+        <v>-0.01913332636375476</v>
       </c>
       <c r="D53">
-        <v>-0.007256400831004515</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4">
+        <v>0.006188252114013216</v>
+      </c>
+      <c r="E53">
+        <v>-0.03145000367686969</v>
+      </c>
+      <c r="F53">
+        <v>-0.07306829330191351</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6">
       <c r="A54" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B54">
-        <v>0.02125077345473961</v>
+        <v>0.02210306447477284</v>
       </c>
       <c r="C54">
-        <v>-0.02642033873723785</v>
+        <v>-0.01216257443358868</v>
       </c>
       <c r="D54">
-        <v>0.008262982140962131</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4">
+        <v>0.03414285377078337</v>
+      </c>
+      <c r="E54">
+        <v>-0.01835375067825259</v>
+      </c>
+      <c r="F54">
+        <v>0.00495808168406765</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6">
       <c r="A55" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B55">
-        <v>0.04649895488796715</v>
+        <v>0.1139735389538072</v>
       </c>
       <c r="C55">
-        <v>-0.09127482384289395</v>
+        <v>-0.01663443061934444</v>
       </c>
       <c r="D55">
-        <v>0.005540686192098015</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4">
+        <v>0.00909488920572196</v>
+      </c>
+      <c r="E55">
+        <v>-0.02775276630389305</v>
+      </c>
+      <c r="F55">
+        <v>-0.04727292325479768</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6">
       <c r="A56" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B56">
-        <v>0.06708421502611796</v>
+        <v>0.176774139712379</v>
       </c>
       <c r="C56">
-        <v>-0.1536670883713994</v>
+        <v>-0.01672430404282123</v>
       </c>
       <c r="D56">
-        <v>-0.01500149574828687</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4">
+        <v>1.196665241814557e-05</v>
+      </c>
+      <c r="E56">
+        <v>-0.03501144382511442</v>
+      </c>
+      <c r="F56">
+        <v>-0.05179822414592613</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6">
       <c r="A57" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -1489,626 +1831,896 @@
       <c r="D57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:4">
+      <c r="E57">
+        <v>0</v>
+      </c>
+      <c r="F57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6">
       <c r="A58" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B58">
-        <v>0.02248223645762993</v>
+        <v>0.04621061800910718</v>
       </c>
       <c r="C58">
-        <v>-0.04387390399897739</v>
+        <v>-8.56463556008064e-05</v>
       </c>
       <c r="D58">
-        <v>0.02513525868977042</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4">
+        <v>0.06786345434982041</v>
+      </c>
+      <c r="E58">
+        <v>-0.02710959072965894</v>
+      </c>
+      <c r="F58">
+        <v>0.03565487941698146</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6">
       <c r="A59" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B59">
-        <v>0.04729423634487648</v>
+        <v>0.1681693262954641</v>
       </c>
       <c r="C59">
-        <v>-0.1186584472804851</v>
+        <v>-0.02130436251797467</v>
       </c>
       <c r="D59">
-        <v>-0.2089549334868407</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4">
+        <v>-0.2189754309988433</v>
+      </c>
+      <c r="E59">
+        <v>0.04614964093754306</v>
+      </c>
+      <c r="F59">
+        <v>0.03606968427062426</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6">
       <c r="A60" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B60">
-        <v>0.08416804253666445</v>
+        <v>0.2318887505272054</v>
       </c>
       <c r="C60">
-        <v>-0.2504440147629069</v>
+        <v>0.002777586512484464</v>
       </c>
       <c r="D60">
-        <v>0.004460271805894264</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4">
+        <v>0.04244754603961806</v>
+      </c>
+      <c r="E60">
+        <v>-0.01145383837954855</v>
+      </c>
+      <c r="F60">
+        <v>0.004799150682957725</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6">
       <c r="A61" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B61">
-        <v>0.0551398470089627</v>
+        <v>0.081611450986689</v>
       </c>
       <c r="C61">
-        <v>-0.1159139862114848</v>
+        <v>-0.01155811161233954</v>
       </c>
       <c r="D61">
-        <v>0.05438966368811957</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4">
+        <v>0.1169261885084158</v>
+      </c>
+      <c r="E61">
+        <v>-0.03868633013058455</v>
+      </c>
+      <c r="F61">
+        <v>-0.01124082506297139</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6">
       <c r="A62" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B62">
-        <v>0.0695831100216691</v>
+        <v>0.1697516921907616</v>
       </c>
       <c r="C62">
-        <v>-0.1534667241054723</v>
+        <v>-0.02002538138245119</v>
       </c>
       <c r="D62">
-        <v>-0.01190078797287497</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4">
+        <v>0.005862994298010661</v>
+      </c>
+      <c r="E62">
+        <v>-0.03407634627762599</v>
+      </c>
+      <c r="F62">
+        <v>-0.03366906796893223</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6">
       <c r="A63" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B63">
-        <v>0.02096441432051125</v>
+        <v>0.04618785541911367</v>
       </c>
       <c r="C63">
-        <v>-0.04458145889077725</v>
+        <v>-0.001778689489961762</v>
       </c>
       <c r="D63">
-        <v>0.0312102355717696</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4">
+        <v>0.05839610591354866</v>
+      </c>
+      <c r="E63">
+        <v>-0.02166682405847437</v>
+      </c>
+      <c r="F63">
+        <v>-0.004485230820728277</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6">
       <c r="A64" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B64">
-        <v>0.04471334092425612</v>
+        <v>0.1101971418893434</v>
       </c>
       <c r="C64">
-        <v>-0.08290342187238425</v>
+        <v>-0.01106684000187468</v>
       </c>
       <c r="D64">
-        <v>0.007840276149449415</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4">
+        <v>0.0433349092208622</v>
+      </c>
+      <c r="E64">
+        <v>-0.02454224704336713</v>
+      </c>
+      <c r="F64">
+        <v>-0.02562006031024416</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6">
       <c r="A65" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B65">
-        <v>0.06922487044763415</v>
+        <v>0.1478265736406709</v>
       </c>
       <c r="C65">
-        <v>-0.1046615081277944</v>
+        <v>-0.03269139659560343</v>
       </c>
       <c r="D65">
-        <v>-0.03082447970528865</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4">
+        <v>-0.04032163256844703</v>
+      </c>
+      <c r="E65">
+        <v>-0.005764500503102793</v>
+      </c>
+      <c r="F65">
+        <v>-0.03969006726849864</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6">
       <c r="A66" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B66">
-        <v>0.07559237086975966</v>
+        <v>0.1246682466937797</v>
       </c>
       <c r="C66">
-        <v>-0.165524314555929</v>
+        <v>-0.01380579630470996</v>
       </c>
       <c r="D66">
-        <v>0.0924515844673143</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4">
+        <v>0.1417430883183446</v>
+      </c>
+      <c r="E66">
+        <v>-0.06528198238953431</v>
+      </c>
+      <c r="F66">
+        <v>-0.03269983407640541</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6">
       <c r="A67" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B67">
-        <v>0.02757735264423403</v>
+        <v>0.06053803096776289</v>
       </c>
       <c r="C67">
-        <v>-0.06420149159758258</v>
+        <v>-0.003329952714047995</v>
       </c>
       <c r="D67">
-        <v>0.01543689524906611</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4">
+        <v>0.05499594755474944</v>
+      </c>
+      <c r="E67">
+        <v>-0.0171784380869009</v>
+      </c>
+      <c r="F67">
+        <v>0.03335501022061631</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6">
       <c r="A68" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B68">
-        <v>0.03358365136866142</v>
+        <v>0.1159418266294843</v>
       </c>
       <c r="C68">
-        <v>-0.04729014234186782</v>
+        <v>-0.03164590054682287</v>
       </c>
       <c r="D68">
-        <v>-0.1848165572125717</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4">
+        <v>-0.2603419754359482</v>
+      </c>
+      <c r="E68">
+        <v>0.08610560024017802</v>
+      </c>
+      <c r="F68">
+        <v>-0.006305274057298101</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6">
       <c r="A69" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B69">
-        <v>0.01417035388992813</v>
+        <v>0.03999005253602014</v>
       </c>
       <c r="C69">
-        <v>-0.0332794456562206</v>
+        <v>-0.001344372422315356</v>
       </c>
       <c r="D69">
-        <v>-0.0184855137416709</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4">
+        <v>0.007092579861071241</v>
+      </c>
+      <c r="E69">
+        <v>-0.0225051142114142</v>
+      </c>
+      <c r="F69">
+        <v>-0.0002483632196745225</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6">
       <c r="A70" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B70">
-        <v>-0.01008067418228675</v>
+        <v>0.06603085509235927</v>
       </c>
       <c r="C70">
-        <v>-0.02438085637717146</v>
+        <v>0.02784705979947278</v>
       </c>
       <c r="D70">
-        <v>-0.04659194898315377</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4">
+        <v>0.02481549706603521</v>
+      </c>
+      <c r="E70">
+        <v>0.03839362497636144</v>
+      </c>
+      <c r="F70">
+        <v>0.1832385032364812</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6">
       <c r="A71" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B71">
-        <v>0.04271960592434867</v>
+        <v>0.1359030748191234</v>
       </c>
       <c r="C71">
-        <v>-0.06469337717838004</v>
+        <v>-0.03594458117375743</v>
       </c>
       <c r="D71">
-        <v>-0.2052974213596937</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4">
+        <v>-0.273443436472724</v>
+      </c>
+      <c r="E71">
+        <v>0.09629502564568077</v>
+      </c>
+      <c r="F71">
+        <v>-0.01175442208895931</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6">
       <c r="A72" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B72">
-        <v>0.06631462924999124</v>
+        <v>0.1416269514994976</v>
       </c>
       <c r="C72">
-        <v>-0.1188573530191487</v>
+        <v>-0.02607370367564502</v>
       </c>
       <c r="D72">
-        <v>-0.0292511173304785</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4">
+        <v>-0.0005978323851150374</v>
+      </c>
+      <c r="E72">
+        <v>-0.03866518153216632</v>
+      </c>
+      <c r="F72">
+        <v>-0.03318620214361001</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6">
       <c r="A73" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B73">
-        <v>0.07945984346563023</v>
+        <v>0.2016983671125499</v>
       </c>
       <c r="C73">
-        <v>-0.1943147073004383</v>
+        <v>-0.01217285524814518</v>
       </c>
       <c r="D73">
-        <v>-0.04774445391582666</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4">
+        <v>0.01753323123480488</v>
+      </c>
+      <c r="E73">
+        <v>-0.06421694746514009</v>
+      </c>
+      <c r="F73">
+        <v>-0.03536180557795884</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6">
       <c r="A74" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B74">
-        <v>0.04546211789239385</v>
+        <v>0.09463768043925998</v>
       </c>
       <c r="C74">
-        <v>-0.1006484036936759</v>
+        <v>-0.01319395365147026</v>
       </c>
       <c r="D74">
-        <v>-0.01235361485349306</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4">
+        <v>0.01710346249186472</v>
+      </c>
+      <c r="E74">
+        <v>-0.04359766043858664</v>
+      </c>
+      <c r="F74">
+        <v>-0.05800111093251949</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6">
       <c r="A75" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B75">
-        <v>0.0708927921743243</v>
+        <v>0.1277277123238005</v>
       </c>
       <c r="C75">
-        <v>-0.1254582465253418</v>
+        <v>-0.02795061681245329</v>
       </c>
       <c r="D75">
-        <v>-0.01801014838308845</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4">
+        <v>0.03012463781515796</v>
+      </c>
+      <c r="E75">
+        <v>-0.05787082471996611</v>
+      </c>
+      <c r="F75">
+        <v>-0.02036629109562039</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6">
       <c r="A76" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B76">
-        <v>0.0001411314821950262</v>
+        <v>0.0001182690596046591</v>
       </c>
       <c r="C76">
-        <v>-0.0004057146671268058</v>
+        <v>-5.228541328582013e-05</v>
       </c>
       <c r="D76">
-        <v>-0.0002431545203855835</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4">
+        <v>-8.002362023345051e-05</v>
+      </c>
+      <c r="E76">
+        <v>-0.0001670282376480957</v>
+      </c>
+      <c r="F76">
+        <v>-9.914770770059903e-05</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6">
       <c r="A77" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B77">
-        <v>0.04384978688466663</v>
+        <v>0.08727143767869323</v>
       </c>
       <c r="C77">
-        <v>-0.08529421523335545</v>
+        <v>-0.008027507739712357</v>
       </c>
       <c r="D77">
-        <v>0.07042544080873282</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4">
+        <v>0.1131345136023339</v>
+      </c>
+      <c r="E77">
+        <v>-0.03898427864035568</v>
+      </c>
+      <c r="F77">
+        <v>-0.03078675509592615</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6">
       <c r="A78" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B78">
-        <v>0.09374348180675615</v>
+        <v>0.1008731861469906</v>
       </c>
       <c r="C78">
-        <v>-0.1350864444989549</v>
+        <v>-0.03956952790581433</v>
       </c>
       <c r="D78">
-        <v>-0.01789214794594321</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4">
+        <v>0.1161565110598291</v>
+      </c>
+      <c r="E78">
+        <v>-0.07446245187265643</v>
+      </c>
+      <c r="F78">
+        <v>-0.04480407151895734</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6">
       <c r="A79" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B79">
-        <v>0.06987143452524804</v>
+        <v>0.1642368363259072</v>
       </c>
       <c r="C79">
-        <v>-0.1372336068930582</v>
+        <v>-0.02254607962906729</v>
       </c>
       <c r="D79">
-        <v>-0.02631651442313037</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4">
+        <v>0.01413236951429576</v>
+      </c>
+      <c r="E79">
+        <v>-0.04564572955346382</v>
+      </c>
+      <c r="F79">
+        <v>-0.01112573493795883</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6">
       <c r="A80" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B80">
-        <v>0.03191335383156624</v>
+        <v>0.08319536291631195</v>
       </c>
       <c r="C80">
-        <v>-0.08704664412821854</v>
+        <v>0.0009519112422969038</v>
       </c>
       <c r="D80">
-        <v>0.01343353061874181</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4">
+        <v>0.05634535421176102</v>
+      </c>
+      <c r="E80">
+        <v>-0.03676138826962441</v>
+      </c>
+      <c r="F80">
+        <v>0.02249608849654416</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6">
       <c r="A81" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B81">
-        <v>0.07121597317026629</v>
+        <v>0.1208725763299177</v>
       </c>
       <c r="C81">
-        <v>-0.1186939487133341</v>
+        <v>-0.03183042518309891</v>
       </c>
       <c r="D81">
-        <v>-0.004620108289319714</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4">
+        <v>0.01451236893448505</v>
+      </c>
+      <c r="E81">
+        <v>-0.05610679483126369</v>
+      </c>
+      <c r="F81">
+        <v>-0.01812110848563834</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6">
       <c r="A82" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B82">
-        <v>0.07347964728879712</v>
+        <v>0.1656947232828577</v>
       </c>
       <c r="C82">
-        <v>-0.1483152771142509</v>
+        <v>-0.02424219803080685</v>
       </c>
       <c r="D82">
-        <v>-0.007520651007705675</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4">
+        <v>0.004144953279470711</v>
+      </c>
+      <c r="E82">
+        <v>-0.02813444407117692</v>
+      </c>
+      <c r="F82">
+        <v>-0.08197038029753219</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6">
       <c r="A83" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B83">
-        <v>0.02913789190996951</v>
+        <v>0.05970607276466053</v>
       </c>
       <c r="C83">
-        <v>-0.06155070918288983</v>
+        <v>-0.002782793106274721</v>
       </c>
       <c r="D83">
-        <v>0.02212946402773612</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4">
+        <v>0.05093131460773906</v>
+      </c>
+      <c r="E83">
+        <v>-0.004742595868754178</v>
+      </c>
+      <c r="F83">
+        <v>0.03021219273112434</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6">
       <c r="A84" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B84">
-        <v>0.03872626813307689</v>
+        <v>0.05883856381704416</v>
       </c>
       <c r="C84">
-        <v>-0.06501832023739987</v>
+        <v>-0.0111646530869055</v>
       </c>
       <c r="D84">
-        <v>0.03610130633604337</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4">
+        <v>0.06342956427020045</v>
+      </c>
+      <c r="E84">
+        <v>-0.006321812361939853</v>
+      </c>
+      <c r="F84">
+        <v>-0.004095171669508314</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6">
       <c r="A85" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B85">
-        <v>0.06754843144157774</v>
+        <v>0.136495510435019</v>
       </c>
       <c r="C85">
-        <v>-0.1159506224833334</v>
+        <v>-0.02780424079226809</v>
       </c>
       <c r="D85">
-        <v>-0.008504633021017678</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4">
+        <v>0.00977571388231337</v>
+      </c>
+      <c r="E85">
+        <v>-0.03767738832416211</v>
+      </c>
+      <c r="F85">
+        <v>-0.04643156225217138</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6">
       <c r="A86" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B86">
-        <v>0.03027457110216272</v>
+        <v>0.09532938555009299</v>
       </c>
       <c r="C86">
-        <v>-0.08057887611369555</v>
+        <v>0.005491485424362424</v>
       </c>
       <c r="D86">
-        <v>-0.1317657013661208</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4">
+        <v>0.03957202800341806</v>
+      </c>
+      <c r="E86">
+        <v>-0.2152579026874121</v>
+      </c>
+      <c r="F86">
+        <v>0.9086243554216925</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6">
       <c r="A87" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B87">
-        <v>0.06857475205449079</v>
+        <v>0.09670891331063072</v>
       </c>
       <c r="C87">
-        <v>-0.119674309909981</v>
+        <v>-0.02005613349792899</v>
       </c>
       <c r="D87">
-        <v>0.06835943204739252</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4">
+        <v>0.09422540996478662</v>
+      </c>
+      <c r="E87">
+        <v>0.05214717726659551</v>
+      </c>
+      <c r="F87">
+        <v>-0.04970309215188911</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6">
       <c r="A88" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B88">
-        <v>0.02379986720519295</v>
+        <v>0.06092163393349987</v>
       </c>
       <c r="C88">
-        <v>-0.04850004361763915</v>
+        <v>-0.002188089918718639</v>
       </c>
       <c r="D88">
-        <v>0.01613516391312691</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4">
+        <v>0.04928599136267681</v>
+      </c>
+      <c r="E88">
+        <v>-0.02427804721001062</v>
+      </c>
+      <c r="F88">
+        <v>-0.01323094468963755</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6">
       <c r="A89" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B89">
-        <v>0.02444547353601964</v>
+        <v>0.1331171574450323</v>
       </c>
       <c r="C89">
-        <v>-0.0769222604870121</v>
+        <v>-0.01316896597808787</v>
       </c>
       <c r="D89">
-        <v>-0.2208824395527439</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4">
+        <v>-0.2498760490071571</v>
+      </c>
+      <c r="E89">
+        <v>0.09063639006258503</v>
+      </c>
+      <c r="F89">
+        <v>0.007660999299964743</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6">
       <c r="A90" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B90">
-        <v>0.04083173730890122</v>
+        <v>0.1504915971837547</v>
       </c>
       <c r="C90">
-        <v>-0.06259531219481929</v>
+        <v>-0.0323715576340895</v>
       </c>
       <c r="D90">
-        <v>-0.2030973093896357</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4">
+        <v>-0.2701373033412159</v>
+      </c>
+      <c r="E90">
+        <v>0.1123106668829796</v>
+      </c>
+      <c r="F90">
+        <v>0.003316261997875387</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6">
       <c r="A91" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B91">
-        <v>0.05116346724421041</v>
+        <v>0.1204130974880208</v>
       </c>
       <c r="C91">
-        <v>-0.1046182446748599</v>
+        <v>-0.01904667532071736</v>
       </c>
       <c r="D91">
-        <v>-0.0345919766323695</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4">
+        <v>-0.01369578906441188</v>
+      </c>
+      <c r="E91">
+        <v>-0.0560040070921714</v>
+      </c>
+      <c r="F91">
+        <v>0.001198849917111265</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6">
       <c r="A92" s="1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B92">
-        <v>0.03122435093709755</v>
+        <v>0.1474932746824573</v>
       </c>
       <c r="C92">
-        <v>-0.0846227518793586</v>
+        <v>-0.0238282563567863</v>
       </c>
       <c r="D92">
-        <v>-0.2307254799645091</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4">
+        <v>-0.2925981998171903</v>
+      </c>
+      <c r="E92">
+        <v>0.1014451584855788</v>
+      </c>
+      <c r="F92">
+        <v>0.01291564808980188</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6">
       <c r="A93" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B93">
-        <v>0.04323946085323631</v>
+        <v>0.1518654607586384</v>
       </c>
       <c r="C93">
-        <v>-0.08697441270372899</v>
+        <v>-0.02805393522057762</v>
       </c>
       <c r="D93">
-        <v>-0.2352191510465653</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4">
+        <v>-0.2693779222140981</v>
+      </c>
+      <c r="E93">
+        <v>0.07783931213941556</v>
+      </c>
+      <c r="F93">
+        <v>-0.003536651862839249</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6">
       <c r="A94" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B94">
-        <v>0.07038870150479032</v>
+        <v>0.1298967677083744</v>
       </c>
       <c r="C94">
-        <v>-0.1361157395873072</v>
+        <v>-0.02468301049810769</v>
       </c>
       <c r="D94">
-        <v>0.003737150072639893</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4">
+        <v>0.04267054115511448</v>
+      </c>
+      <c r="E94">
+        <v>-0.05720002204539942</v>
+      </c>
+      <c r="F94">
+        <v>-0.03715608311219405</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6">
       <c r="A95" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B95">
-        <v>0.05002857258393433</v>
+        <v>0.1271379161316389</v>
       </c>
       <c r="C95">
-        <v>-0.1128346577210198</v>
+        <v>-0.003405039634165539</v>
       </c>
       <c r="D95">
-        <v>0.05453451359556043</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4">
+        <v>0.09215918195001314</v>
+      </c>
+      <c r="E95">
+        <v>-0.04681097754933483</v>
+      </c>
+      <c r="F95">
+        <v>0.008617645205448303</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6">
       <c r="A96" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B96">
-        <v>-0.903401570833973</v>
+        <v>0.1065745759914732</v>
       </c>
       <c r="C96">
-        <v>-0.4186081218618806</v>
+        <v>0.9874688178676556</v>
       </c>
       <c r="D96">
-        <v>-0.02270551124535466</v>
-      </c>
-    </row>
-    <row r="97" spans="1:4">
+        <v>-0.04827683925534026</v>
+      </c>
+      <c r="E96">
+        <v>-0.05518018420904932</v>
+      </c>
+      <c r="F96">
+        <v>-0.04182573125155135</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6">
       <c r="A97" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B97">
-        <v>0.04780062099843441</v>
+        <v>0.1929404680913225</v>
       </c>
       <c r="C97">
-        <v>-0.1585168100932541</v>
+        <v>0.007403196334581776</v>
       </c>
       <c r="D97">
-        <v>-0.0750563443569968</v>
-      </c>
-    </row>
-    <row r="98" spans="1:4">
+        <v>-0.01698860652870155</v>
+      </c>
+      <c r="E97">
+        <v>-0.01853939756974187</v>
+      </c>
+      <c r="F97">
+        <v>0.08702655337708659</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6">
       <c r="A98" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B98">
-        <v>0.06929667521254879</v>
+        <v>0.2046209937974217</v>
       </c>
       <c r="C98">
-        <v>-0.1843315716631418</v>
+        <v>-0.006901335348277844</v>
       </c>
       <c r="D98">
-        <v>-0.002879617007134229</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4">
+        <v>0.01372734762214657</v>
+      </c>
+      <c r="E98">
+        <v>0.08412715165348132</v>
+      </c>
+      <c r="F98">
+        <v>0.09046939839537306</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6">
       <c r="A99" s="1" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B99">
-        <v>0.01707223188981806</v>
+        <v>0.0553642173719425</v>
       </c>
       <c r="C99">
-        <v>-0.0592645644342479</v>
+        <v>0.004695545380593353</v>
       </c>
       <c r="D99">
-        <v>0.002658124532976399</v>
-      </c>
-    </row>
-    <row r="100" spans="1:4">
+        <v>0.03929218798256019</v>
+      </c>
+      <c r="E99">
+        <v>-0.02256676564961326</v>
+      </c>
+      <c r="F99">
+        <v>-0.001474754391490464</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6">
       <c r="A100" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B100">
-        <v>0.01962148464860195</v>
+        <v>0.1257988583194068</v>
       </c>
       <c r="C100">
-        <v>-0.1306297705212749</v>
+        <v>0.05437353795614161</v>
       </c>
       <c r="D100">
-        <v>0.709577540421965</v>
-      </c>
-    </row>
-    <row r="101" spans="1:4">
+        <v>0.3432536961694276</v>
+      </c>
+      <c r="E100">
+        <v>0.888956519197295</v>
+      </c>
+      <c r="F100">
+        <v>0.144746038297895</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6">
       <c r="A101" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B101">
-        <v>0.01767067398703394</v>
+        <v>0.02734572240888278</v>
       </c>
       <c r="C101">
-        <v>-0.01822884410919243</v>
+        <v>-0.008366159504864116</v>
       </c>
       <c r="D101">
-        <v>0.00476147987745771</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4">
+        <v>0.0314768199611479</v>
+      </c>
+      <c r="E101">
+        <v>-0.0106698372203492</v>
+      </c>
+      <c r="F101">
+        <v>0.01272818961137085</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6">
       <c r="A102" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B102">
         <v>0</v>
@@ -2119,10 +2731,16 @@
       <c r="D102">
         <v>0</v>
       </c>
-    </row>
-    <row r="103" spans="1:4">
+      <c r="E102">
+        <v>0</v>
+      </c>
+      <c r="F102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6">
       <c r="A103" s="1" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -2133,10 +2751,16 @@
       <c r="D103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:4">
+      <c r="E103">
+        <v>0</v>
+      </c>
+      <c r="F103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6">
       <c r="A104" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -2145,6 +2769,12 @@
         <v>0</v>
       </c>
       <c r="D104">
+        <v>0</v>
+      </c>
+      <c r="E104">
+        <v>0</v>
+      </c>
+      <c r="F104">
         <v>0</v>
       </c>
     </row>
